--- a/client/src/components/data/course_id_data.xlsx
+++ b/client/src/components/data/course_id_data.xlsx
@@ -12741,7 +12741,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12755,6 +12755,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -12764,7 +12770,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -12793,13 +12806,13 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -13319,7 +13332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -13333,7 +13346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -13347,7 +13360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
